--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_e2eOrder.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_e2eOrder.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF79BE23-276C-424C-8AEB-2412D981F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6912C1-DFFC-448C-9DEB-A52F36F4E373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="-15390" windowWidth="19185" windowHeight="10200" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="6090" yWindow="-14865" windowWidth="28455" windowHeight="11880" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="20" r:id="rId1"/>
     <sheet name="order_01" sheetId="21" r:id="rId2"/>
-    <sheet name="order_02" sheetId="23" r:id="rId3"/>
-    <sheet name="order_03" sheetId="25" r:id="rId4"/>
-    <sheet name="order_04" sheetId="24" r:id="rId5"/>
-    <sheet name="order_05" sheetId="26" r:id="rId6"/>
+    <sheet name="order_02" sheetId="29" r:id="rId3"/>
+    <sheet name="order_03" sheetId="30" r:id="rId4"/>
+    <sheet name="order_04" sheetId="23" r:id="rId5"/>
+    <sheet name="order_05" sheetId="25" r:id="rId6"/>
+    <sheet name="order_06" sheetId="24" r:id="rId7"/>
+    <sheet name="order_07" sheetId="26" r:id="rId8"/>
+    <sheet name="order_08" sheetId="28" r:id="rId9"/>
+    <sheet name="order_09" sheetId="31" r:id="rId10"/>
+    <sheet name="order_10" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>action</t>
   </si>
@@ -82,9 +87,6 @@
     <t>addToCartFrom</t>
   </si>
   <si>
-    <t>processToCheckoutFrom</t>
-  </si>
-  <si>
     <t>loginOrSignup</t>
   </si>
   <si>
@@ -92,17 +94,6 @@
   </si>
   <si>
     <t>orderFromPage</t>
-  </si>
-  <si>
-    <t>card
-view</t>
-  </si>
-  <si>
-    <t>firstLogin|default,
-firstSignup|default
-cartLogin|default
-cartSignup|default
-'' &lt;= Not login/Signup</t>
   </si>
   <si>
     <t>cart</t>
@@ -127,9 +118,6 @@
 cart</t>
   </si>
   <si>
-    <t>add, addOn, delete</t>
-  </si>
-  <si>
     <t>homepage</t>
   </si>
   <si>
@@ -140,15 +128,9 @@
     <t>orderComment</t>
   </si>
   <si>
-    <t>cartLogin|default</t>
-  </si>
-  <si>
     <t>products</t>
   </si>
   <si>
-    <t>view</t>
-  </si>
-  <si>
     <t>Test case order_04</t>
   </si>
   <si>
@@ -171,32 +153,143 @@
   </si>
   <si>
     <t>orderFromSection</t>
+  </si>
+  <si>
+    <t>brands[Polo]</t>
+  </si>
+  <si>
+    <t>category[Women|Dress]</t>
+  </si>
+  <si>
+    <t>proceedToCheckoutFrom</t>
+  </si>
+  <si>
+    <t>defaultCard
+orderCard
+errorCard</t>
+  </si>
+  <si>
+    <t>cartLogin|automatedUser</t>
+  </si>
+  <si>
+    <t>firstLogin|automatedUser
+firstSignup|automatedUser
+cartLogin|automatedUser
+cartSignup|automatedUser
+'' &lt;= Not login/Signup</t>
+  </si>
+  <si>
+    <t>defaultCard</t>
+  </si>
+  <si>
+    <t>paymentDetail</t>
+  </si>
+  <si>
+    <t>orderResult</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>viewAdd</t>
+  </si>
+  <si>
+    <t>viewCheckAdd</t>
+  </si>
+  <si>
+    <t>firstLogin|automatedUser</t>
+  </si>
+  <si>
+    <t>Test case order_02</t>
+  </si>
+  <si>
+    <t>cartSignup|orderUser</t>
+  </si>
+  <si>
+    <t>orderCard</t>
+  </si>
+  <si>
+    <t>firstSignup|noCompanyUser</t>
+  </si>
+  <si>
+    <t>noCompanyCard</t>
+  </si>
+  <si>
+    <t>Test case order_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card
+viewAdd
+viewCheckAdd
+recomendedCard (home page only)
+</t>
+  </si>
+  <si>
+    <t>recomendedCard</t>
+  </si>
+  <si>
+    <t>recommended</t>
   </si>
   <si>
     <t>card
 category[Women|Dress]
 brands[Polo]
-search (products page only)</t>
-  </si>
-  <si>
-    <t>brands[Polo]</t>
-  </si>
-  <si>
-    <t>category[Women|Dress]</t>
-  </si>
-  <si>
-    <t>result</t>
+search (products page only)
+recommended (home page only)</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Blue Cotton Indie Mickey Dress</t>
+  </si>
+  <si>
+    <t>Madame Top For Women</t>
+  </si>
+  <si>
+    <t>Test case order_08</t>
+  </si>
+  <si>
+    <t>Test case order_10</t>
+  </si>
+  <si>
+    <t>errorCard</t>
+  </si>
+  <si>
+    <t>Test case order_09</t>
   </si>
   <si>
     <t>success
-failed-payment</t>
+failed-paymentExp</t>
+  </si>
+  <si>
+    <t>failed-paymentExp</t>
+  </si>
+  <si>
+    <t>add
+addOn delete</t>
+  </si>
+  <si>
+    <t>category[Kids|Dress]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,18 +348,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,9 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -310,8 +419,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,95 +767,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F9AD89-CF04-450A-A9E3-682887DC121D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.6328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="22" customFormat="1" ht="87">
+      <c r="A2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>38</v>
+      <c r="K2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -724,86 +868,340 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A13A852-89D3-4392-A074-0D2F3A494BBB}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>loginOrSignup</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>qty</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>orderFromPage</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>orderFromSection</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>addToCartFrom</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>orderComment</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34C8E0E-3337-4F66-8F3E-5A49FEB14677}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="18" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>loginOrSignup</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>qty</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>orderFromPage</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>orderFromSection</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>addToCartFrom</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="16" t="str">
+        <v>orderComment</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="25" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054B2BE7-C4A0-408B-84CC-0AA45B1E0844}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="7" customWidth="1"/>
-    <col min="6" max="9" width="20.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="18" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:J1">column_ref!A1:J1</f>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>orderNo</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>loginOrSignup</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>qty</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>orderFromPage</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>orderFromSection</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>addToCartFrom</v>
       </c>
-      <c r="I1" s="3" t="str">
-        <v>processToCheckoutFrom</v>
-      </c>
-      <c r="J1" s="3" t="str">
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="16" t="str">
         <v>orderComment</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>16</v>
+      <c r="J2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -813,111 +1211,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B61CE-69E5-451A-A4B7-BBE98F86F7D0}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6283A200-F4B4-45D8-82D5-E5CC20ABA7D3}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="7" customWidth="1"/>
-    <col min="6" max="9" width="20.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="18" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:J1">column_ref!A1:J1</f>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>orderNo</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>loginOrSignup</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>qty</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>orderFromPage</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>orderFromSection</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>addToCartFrom</v>
       </c>
-      <c r="I1" s="3" t="str">
-        <v>processToCheckoutFrom</v>
-      </c>
-      <c r="J1" s="3" t="str">
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="16" t="str">
         <v>orderComment</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>26</v>
+      <c r="J2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -927,139 +1315,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7977D9-90F7-433D-8DFE-D6A8B914B522}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C79EEB-243D-41E1-9D44-FC7EA939B776}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="20.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="18" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:J1">column_ref!A1:J1</f>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>orderNo</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>loginOrSignup</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>qty</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>orderFromPage</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>orderFromSection</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>addToCartFrom</v>
       </c>
-      <c r="I1" s="3" t="str">
-        <v>processToCheckoutFrom</v>
-      </c>
-      <c r="J1" s="3" t="str">
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="16" t="str">
         <v>orderComment</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>29</v>
+      <c r="K2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1069,111 +1419,130 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D94C1-3574-4152-9217-86ECC8265B97}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B61CE-69E5-451A-A4B7-BBE98F86F7D0}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="20.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:J1">column_ref!A1:J1</f>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>orderNo</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>loginOrSignup</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>qty</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>orderFromPage</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>orderFromSection</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>addToCartFrom</v>
       </c>
-      <c r="I1" s="3" t="str">
-        <v>processToCheckoutFrom</v>
-      </c>
-      <c r="J1" s="3" t="str">
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
         <v>orderComment</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="J3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>26</v>
+      <c r="K3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1183,183 +1552,604 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D22E7C-09A9-4CE1-9290-8EFDB95A4BC5}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7977D9-90F7-433D-8DFE-D6A8B914B522}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="20.6328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="str" cm="1">
-        <f t="array" ref="A1:J1">column_ref!A1:J1</f>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
         <v>action</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="2" t="str">
         <v>orderNo</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="2" t="str">
         <v>loginOrSignup</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="7" t="str">
         <v>qty</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>orderFromPage</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <v>orderFromSection</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <v>addToCartFrom</v>
       </c>
-      <c r="I1" s="3" t="str">
-        <v>processToCheckoutFrom</v>
-      </c>
-      <c r="J1" s="3" t="str">
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
         <v>orderComment</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D94C1-3574-4152-9217-86ECC8265B97}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>loginOrSignup</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>qty</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>orderFromPage</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>orderFromSection</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>addToCartFrom</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>orderComment</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D22E7C-09A9-4CE1-9290-8EFDB95A4BC5}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>loginOrSignup</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>qty</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>orderFromPage</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>orderFromSection</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>addToCartFrom</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>orderComment</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1845C328-AB34-472B-92AC-00887F00DD6E}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="25.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="20.6328125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="2" t="str" cm="1">
+        <f t="array" ref="A1:L1">column_ref!A1:L1</f>
+        <v>action</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <v>loginOrSignup</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <v>name</v>
+      </c>
+      <c r="E1" s="7" t="str">
+        <v>qty</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <v>orderFromPage</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <v>orderFromSection</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <v>addToCartFrom</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <v>proceedToCheckoutFrom</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <v>orderComment</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <v>paymentDetail</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <v>orderResult</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="B4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="E5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>32</v>
+      <c r="H6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_e2eOrder.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_e2eOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6912C1-DFFC-448C-9DEB-A52F36F4E373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6D9250-A55F-483F-867A-56AB3B68DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="-14865" windowWidth="28455" windowHeight="11880" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="11085" yWindow="-14865" windowWidth="23460" windowHeight="11880" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="20" r:id="rId1"/>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
